--- a/testNadz/2.Web_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -442,9 +442,89 @@
         <v>Screenshot failed</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7/16/2025, 10:10:25 AM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F3" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B4" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
+      </c>
+      <c r="D4" t="str">
+        <v>7/16/2025, 10:11:19 AM</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F4" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
+      </c>
+      <c r="D5" t="str">
+        <v>7/16/2025, 11:02:44 AM</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F5" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
+      </c>
+      <c r="D6" t="str">
+        <v>7/16/2025, 11:03:19 AM</v>
+      </c>
+      <c r="E6" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F6" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -427,19 +427,19 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B2" t="str">
-        <v>TC002B</v>
+        <v>TC002A</v>
       </c>
       <c r="C2" t="str">
-        <v>Web_Admin_Gmail_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/15/2025, 10:04:53 PM</v>
+        <v>7/17/2025, 3:19:25 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>Screenshot failed</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
       </c>
     </row>
     <row r="3">
@@ -447,84 +447,24 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B3" t="str">
-        <v>TC001</v>
+        <v>TC002B</v>
       </c>
       <c r="C3" t="str">
-        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_BankDetails_HappyFlow</v>
       </c>
       <c r="D3" t="str">
-        <v>7/16/2025, 10:10:25 AM</v>
+        <v>7/17/2025, 3:20:04 PM</v>
       </c>
       <c r="E3" t="str">
         <v>PASS</v>
       </c>
       <c r="F3" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>WEB_AdminLogin</v>
-      </c>
-      <c r="B4" t="str">
-        <v>TC001</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
-      </c>
-      <c r="D4" t="str">
-        <v>7/16/2025, 10:11:19 AM</v>
-      </c>
-      <c r="E4" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="F4" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>WEB_AdminLogin</v>
-      </c>
-      <c r="B5" t="str">
-        <v>TC001</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
-      </c>
-      <c r="D5" t="str">
-        <v>7/16/2025, 11:02:44 AM</v>
-      </c>
-      <c r="E5" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="F5" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>WEB_AdminLogin</v>
-      </c>
-      <c r="B6" t="str">
-        <v>TC001</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Web_Admin_Login_Approve_SupplierManagement_HappyFlow</v>
-      </c>
-      <c r="D6" t="str">
-        <v>7/16/2025, 11:03:19 AM</v>
-      </c>
-      <c r="E6" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="F6" t="str">
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>